--- a/Translation/English excel.xlsx
+++ b/Translation/English excel.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -10,110 +10,98 @@
     <sheet name="文檔需求" sheetId="1" r:id="rId1"/>
     <sheet name="流程圖需求" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Requirements for cross-border document translation tools</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>Format</t>
-  </si>
-  <si>
-    <t>translation needs</t>
-  </si>
-  <si>
-    <t>Translation needs &amp; original intention</t>
-  </si>
-  <si>
-    <t>Docking purpose</t>
-  </si>
-  <si>
-    <t>Summarize</t>
-  </si>
-  <si>
-    <t>documents, pictures</t>
-  </si>
-  <si>
-    <t>word、pdf、txt、excel、png、ppt</t>
-  </si>
-  <si>
-    <t>Text, pictures, tables, PPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Original intention:
-Reduce the actions of copying → translating → pasting text documents one by one, and realize the conversion of document to document translation in batches
-need:
-1. Batch translate the text of the document and export it to the original format/editable format (convenient for later proofreading)
-2. Higher accuracy of Chinese/traditional Chinese to English expression, so that the translation is accurate, no translation is added or missed, and manual proofreading is reduced
-3. Preservation of font &amp; fill &amp; color
-4. Table translation does not accumulate or omit
-5. Support the retention of pictures in the document (there will be pictures that need to be replaced in the future)
-6. Support the application and import of term base</t>
-  </si>
-  <si>
-    <t>Use the functions of MENU to realize translation needs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete the translation without changing the original format of the document
-(fonts, colors, pictures, special symbols)</t>
-  </si>
-  <si>
-    <t>The step-by-step tutorial of the system (such as SJFOOD) needs to be retained and replaced later</t>
-  </si>
-  <si>
-    <t>Situations/requirements to avoid in translation</t>
-  </si>
-  <si>
-    <t>It is best to keep the position (alignment), color and not blurring of the original text</t>
-  </si>
-  <si>
-    <t>If you want to capitalize, you should capitalize uniformly, the font format needs to be uniform, and the symbols are best reserved</t>
-  </si>
-  <si>
-    <t>The content in the pdf is ppt</t>
-  </si>
-  <si>
-    <t>\\sj-share.sjfood.us\sales-department\new employee training\training PPT\packaging training</t>
-  </si>
-  <si>
-    <t>About termbases</t>
-  </si>
-  <si>
-    <t>What is the import method? Train or import?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                      Note: There may be two expressions in Chinese. For example, INVOICE has two expressions in Chinese. When updating the term base, you need to pay attention to how many expressions there are in Chinese and English.</t>
-  </si>
-  <si>
-    <t>\\sj-share.sjfood.us\sales-department\newcomer training\training PPT\homework training course\8.SD-ARO. About the new product process that has not been taken before customer consultation.pdf</t>
-  </si>
-  <si>
-    <t>跨境流程圖翻譯工具需求</t>
-  </si>
-  <si>
-    <t>形式</t>
-  </si>
-  <si>
-    <t>格式</t>
-  </si>
-  <si>
-    <t>翻譯需求&amp;初衷</t>
-  </si>
-  <si>
-    <t>總結</t>
-  </si>
-  <si>
-    <t>流程圖</t>
-  </si>
-  <si>
-    <t>vsd/pdf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+  <si>
+    <t xml:space="preserve">跨境文檔翻譯工具需求</t>
+  </si>
+  <si>
+    <t xml:space="preserve">形式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">格式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翻譯需求</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翻譯需求&amp;初衷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">對接目的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">總結</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文檔、圖片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">word、pdf、txt、excel、png、ppt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文字、圖片、表格、PPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初衷：
+減少一個一個文字文檔的複製→翻譯→粘貼的動作，實現文檔對文檔翻譯批量完成的轉換
+需求：
+1.將文檔文字批量翻譯，並導出為原格式/可編輯格式（方便後期校對）
+2.有較高中文/繁體轉英文表達的準確度，做到翻譯準確，不増譯漏譯，減少人工校對環節
+3. 對字體&amp;填充&amp;顏色的保留
+4. 表格翻譯不堆積，不遺漏
+5. 支持文檔內圖片的保留（後續有需要替換的圖片）
+6. 支持術語庫的應用與導入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">借助MENU的功能實現翻譯需求</t>
+  </si>
+  <si>
+    <t xml:space="preserve">實現文檔原格式不動的情況下完成翻譯
+（字體、顏色、圖片、特殊符號）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">系統（如SJFOOD)的步驟教程需要保留，後續要替換</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翻譯需要避免的情況/要求</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最好保留原文本的位置（對齊）、顏色且不模糊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要大寫就統一大寫，字體格式需要統一，符號最好保留</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdf裡面的內容是ppt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\sj-share.sjfood.us\sales-department\新人培訓\培訓PPT\包裝方式培訓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">關於術語庫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">導入方式是什麼？訓練還是導入？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                      注意：中文可能有兩種表達，比如INVOICE在中文有兩個表達方式，對術語庫的更新需要注意中英文有多少表達方式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\sj-share.sjfood.us\sales-department\新人培訓\培訓PPT\做功課培訓課\8.SD-ARO. 關於客戶諮詢之前沒有拿過的新貨流程.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跨境流程圖翻譯工具需求</t>
+  </si>
+  <si>
+    <t xml:space="preserve">流程圖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vsd/pdf</t>
   </si>
   <si>
     <t xml:space="preserve">初衷：
@@ -125,30 +113,105 @@
 4. 支持術語庫的應用與導入</t>
   </si>
   <si>
-    <t>pdf/vsd格式再製作，使其翻譯不受格子限制</t>
-  </si>
-  <si>
-    <t>避免情況</t>
-  </si>
-  <si>
-    <t>效果（vsd/pdf）</t>
-  </si>
-  <si>
-    <t>翻譯</t>
-  </si>
-  <si>
-    <t>3. 保留框架、顏色與線條</t>
+    <t xml:space="preserve">pdf/vsd格式再製作，使其翻譯不受格子限制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">避免情況</t>
+  </si>
+  <si>
+    <t xml:space="preserve">效果（vsd/pdf）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翻譯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 保留框架、顏色與線條</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirements for cross-border document translation tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation needs &amp; original intention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docking purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summarize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documents, pictures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text, pictures, tables, PPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original intention:
+Reduce the actions of copying, translating, and pasting text documents one by one, and realize the conversion of document to document translation in batches.
+need:
+1. Batch translate document text and export it to original format/editable format (to facilitate later proofreading)
+2. It has a high accuracy in converting Chinese/Traditional Chinese to English expressions to achieve accurate translation without missing translations and reduce manual proofreading.
+3. Preservation of font &amp; fill &amp; color
+4. Table translation does not accumulate or omit
+5. Supports the retention of pictures in the document (there will be pictures that need to be replaced later)
+6. Support the application and import of term base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the functions of MENU to realize translation needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achieve translation without changing the original format of the document
+(Fonts, colors, pictures, special symbols)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The step-by-step tutorials of the system (such as SJFOOD) need to be retained and replaced later.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation situations/requirements to avoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is best to retain the position (alignment) and color of the original text without blurring it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want to capitalize, use uniform capitalization. The font format needs to be unified and symbols should be retained.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The content in the pdf is ppt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\sj-share.sjfood.us\sales-department\Newcomer Training\Training PPT\Packaging Method Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About the termbase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the import method? Training or import?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                      Note: There may be two expressions in Chinese. For example, INVOICE has two expressions in Chinese. When updating the term base, you need to pay attention to how many expressions there are in Chinese and English.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\\sj-share.sjfood.us\sales-department\Newcomer Training\Training PPT\Homework Training Course\8.SD-ARO. About the new product process that has not been obtained before customer consultation.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -199,7 +262,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
@@ -267,7 +330,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
@@ -691,180 +754,180 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="36" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="23" applyFont="1" fillId="30" applyFill="1" borderId="4" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="33" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="34" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="10" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="10" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="13" applyFont="1" fillId="12" applyFill="1" borderId="4" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="25" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="8" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="35" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="26" applyFont="1" fillId="0" applyFill="0" borderId="9" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="22" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="21" applyFont="1" fillId="18" applyFill="1" borderId="7" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="24" applyFont="1" fillId="12" applyFill="1" borderId="8" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="18" applyFont="1" fillId="0" applyFill="0" borderId="5" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="17" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="9" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="10" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="10" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="16" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="14" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="10" applyFont="0" fillId="9" applyFill="1" borderId="3" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="7" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="10" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="15" applyFont="1" fillId="0" applyFill="0" borderId="5" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="9" applyFont="1" fillId="0" applyFill="0" borderId="2" applyBorder="1" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="0" applyFill="0" borderId="6" applyBorder="1" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="4" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="4" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="0" xfId="41"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -919,15 +982,15 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -949,7 +1012,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect b="16203"/>
         <a:stretch>
           <a:fillRect/>
@@ -976,7 +1039,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:colOff>1912764</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>123523</xdr:rowOff>
     </xdr:to>
@@ -988,7 +1051,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1018,7 +1081,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
         <xdr:cNvCxnSpPr/>
@@ -1065,7 +1128,7 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
         <xdr:cNvCxnSpPr>
@@ -1114,7 +1177,7 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="59" name="直接箭头连接符 58"/>
         <xdr:cNvCxnSpPr/>
@@ -1157,9 +1220,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>588976</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>29409</xdr:rowOff>
+      <xdr:rowOff>29410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1169,7 +1232,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1195,7 +1258,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>180795</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>19161</xdr:rowOff>
     </xdr:to>
@@ -1207,7 +1270,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1233,9 +1296,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>19990</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1245,7 +1308,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1275,7 +1338,7 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="矩形 6"/>
         <xdr:cNvSpPr/>
@@ -1335,7 +1398,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
         <xdr:cNvCxnSpPr/>
@@ -1382,7 +1445,7 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="矩形: 圆角 2"/>
         <xdr:cNvSpPr/>
@@ -1440,7 +1503,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1943100</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>67165</xdr:rowOff>
+      <xdr:rowOff>67166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1450,7 +1513,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1480,7 +1543,7 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="矩形: 圆角 4"/>
         <xdr:cNvSpPr/>
@@ -1548,7 +1611,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1586,7 +1649,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1596,9 +1659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>280481</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1608,7 +1671,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1634,9 +1697,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>494380</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>104130</xdr:rowOff>
+      <xdr:rowOff>104131</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1646,7 +1709,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1672,7 +1735,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>452462</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -1684,7 +1747,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1714,7 +1777,7 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
         <xdr:cNvCxnSpPr/>
@@ -1757,7 +1820,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>35910</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1769,7 +1832,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2045,7 +2108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr/>
   <dimension ref="A1:H125"/>
   <sheetViews>
@@ -2059,112 +2122,121 @@
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="36.625" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" hidden="1" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="26.5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="35.875" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4">
+    <row r="1" spans="1:4" ht="20.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="232.5" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="232.5" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="G5" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="4:4" ht="14.25" customHeight="1">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2172,57 +2244,66 @@
       <c r="E13" s="2"/>
     </row>
     <row r="22" ht="42" customHeight="1"/>
-    <row r="28">
+    <row r="28" spans="1:5">
       <c r="A28" s="10" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B28" s="10"/>
+      <c r="C28"/>
       <c r="D28" s="11" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="12" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" ht="64.5" customHeight="1"/>
-    <row r="66">
-      <c r="A66" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70">
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
       <c r="F70" s="14"/>
     </row>
-    <row r="71" ht="17.6">
+    <row r="71" spans="1:2" ht="17.6">
       <c r="A71" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>50</v>
+      </c>
+      <c r="B71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
       <c r="D77" s="10" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:1">
       <c r="A125" s="14" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A125" r:id="rId2"/>
+    <hyperlink ref="A125" r:id="rId2" display="\\sj-share.sjfood.us\sales-department\新人培訓\培訓PPT\做功課培訓課\8.SD-ARO. 關於客戶諮詢之前沒有拿過的新貨流程.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2232,7 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr/>
   <dimension ref="A1:F66"/>
   <sheetViews>
@@ -2248,59 +2329,59 @@
     <col min="4" max="4" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4">
+    <row r="1" spans="1:3" ht="20.4">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="196.5" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="196.5" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="49" spans="6:6" ht="17.6">
+      <c r="F49" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="7" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" ht="17.6">
-      <c r="F49" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="B66" s="7"/>
     </row>
